--- a/Excel sheets/UZ4820.xlsx
+++ b/Excel sheets/UZ4820.xlsx
@@ -3,15 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="UZ4820" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'UZ4820'!$B$1:$B$107</definedName>
-  </definedNames>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -29,13 +27,13 @@
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -66,26 +64,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -168,10 +177,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -209,71 +218,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -301,7 +310,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -324,11 +333,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -337,13 +346,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -353,7 +362,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -362,7 +371,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -371,7 +380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -379,10 +388,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -455,1627 +464,2424 @@
   <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12.453125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="13.54296875" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="13.54296875" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="13.1796875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="17.81640625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="10" bestFit="1" customWidth="1" style="3" min="6" max="6"/>
-    <col width="9.7265625" bestFit="1" customWidth="1" style="3" min="7" max="7"/>
-    <col width="11.453125" bestFit="1" customWidth="1" style="3" min="8" max="8"/>
-    <col width="16.7265625" bestFit="1" customWidth="1" style="3" min="9" max="9"/>
-    <col width="13.1796875" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="33.81640625" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="12.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
+    <col width="13.14785714285714" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="17.86214285714286" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
+    <col width="10.005" bestFit="1" customWidth="1" style="10" min="6" max="6"/>
+    <col width="9.719285714285713" bestFit="1" customWidth="1" style="10" min="7" max="7"/>
+    <col width="11.43357142857143" bestFit="1" customWidth="1" style="10" min="8" max="8"/>
+    <col width="16.71928571428571" bestFit="1" customWidth="1" style="10" min="9" max="9"/>
+    <col width="13.14785714285714" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
+    <col width="33.86214285714286" bestFit="1" customWidth="1" style="7" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Symbol</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Lots</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Last Price</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="D1" s="7" t="n"/>
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>Buy Trades</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Sell Trades</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="4" t="inlineStr">
         <is>
           <t>Base Change</t>
         </is>
       </c>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="4" t="inlineStr">
         <is>
           <t>Approximate Profit</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="J1" s="7" t="n"/>
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>Access Token</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>MSUMI</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="3" t="n">
         <v>62.02572005526623</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="7" t="n"/>
+      <c r="E2" s="7" t="inlineStr">
         <is>
           <t>2025-06-02 15:30:06</t>
         </is>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="n">
+      <c r="G2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2" t="n">
         <v>160</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>WIcC9jIJPlskxaeF6kvv6ezKBChge00G</t>
+      <c r="J2" s="7" t="n"/>
+      <c r="K2" s="7" t="inlineStr">
+        <is>
+          <t>ue8oyoj1FFczqUJjhJGugSyLbyfJgAdp</t>
         </is>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="7" t="inlineStr">
         <is>
           <t>SAIL</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="n">
+      <c r="B3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>129.54</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="D3" s="7" t="n"/>
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>2025-06-03 15:30:27</t>
         </is>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I3" s="2" t="n">
         <v>720</v>
       </c>
+      <c r="J3" s="7" t="n"/>
+      <c r="K3" s="7" t="n"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>BAJAJHFL</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="n">
+      <c r="B4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>120.959</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="D4" s="7" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>2025-06-04 15:30:31</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I4" s="2" t="n">
         <v>1320</v>
       </c>
+      <c r="J4" s="7" t="n"/>
+      <c r="K4" s="7" t="n"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="7" t="inlineStr">
         <is>
           <t>IRFC</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="3" t="n">
         <v>137.6915</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="D5" s="7" t="n"/>
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>2025-06-05 15:30:10</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="5" t="n">
         <v>17</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="5" t="n">
         <v>1360</v>
       </c>
+      <c r="J5" s="7" t="n"/>
+      <c r="K5" s="7" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="7" t="inlineStr">
         <is>
           <t>MOTHERSON</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="n">
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="n">
         <v>151.96</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>2025-06-06 15:30:01</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="5" t="n">
         <v>600</v>
       </c>
+      <c r="J6" s="7" t="n"/>
+      <c r="K6" s="7" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="7" t="inlineStr">
         <is>
           <t>NHPC</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="n">
+      <c r="B7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="n">
         <v>88.28</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>2025-06-09 15:30:31</t>
         </is>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="5" t="n">
         <v>23</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="5" t="n">
         <v>1640</v>
       </c>
+      <c r="J7" s="7" t="n"/>
+      <c r="K7" s="7" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="7" t="inlineStr">
         <is>
           <t>NTPCGREEN</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="3" t="n">
         <v>108.7564</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>2025-06-10 15:30:07</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="5" t="n">
         <v>18</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8" s="5" t="n">
         <v>1200</v>
       </c>
+      <c r="J8" s="7" t="n"/>
+      <c r="K8" s="7" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="7" t="inlineStr">
         <is>
           <t>NMDC</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="B9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="n">
         <v>72.06</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="D9" s="7" t="n"/>
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>2025-06-11 15:30:34</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>19</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9" s="5" t="n">
         <v>1120</v>
       </c>
+      <c r="J9" s="7" t="n"/>
+      <c r="K9" s="7" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="7" t="inlineStr">
         <is>
           <t>NBCC</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="3" t="n">
         <v>119.9484536082475</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>2025-06-12 15:30:10</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>42</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10" s="5" t="n">
         <v>440</v>
       </c>
+      <c r="J10" s="7" t="n"/>
+      <c r="K10" s="7" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="7" t="inlineStr">
         <is>
           <t>IOC</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" s="5" t="n">
+      <c r="B11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="n">
         <v>139.2435</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="D11" s="7" t="n"/>
+      <c r="E11" s="7" t="inlineStr">
         <is>
           <t>2025-06-13 15:30:27</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5" t="n">
         <v>51</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11" s="5" t="n">
         <v>360</v>
       </c>
+      <c r="J11" s="7" t="n"/>
+      <c r="K11" s="7" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="7" t="inlineStr">
         <is>
           <t>TATASTEEL</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="3" t="n">
         <v>152.642207</v>
       </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="10" t="n"/>
+      <c r="G12" s="10" t="n"/>
+      <c r="H12" s="10" t="n"/>
+      <c r="I12" s="10" t="n"/>
+      <c r="J12" s="7" t="n"/>
+      <c r="K12" s="7" t="n"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="7" t="inlineStr">
         <is>
           <t>GAIL</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="n">
+      <c r="B13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="n">
         <v>191.09</v>
       </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="10" t="n"/>
+      <c r="G13" s="10" t="n"/>
+      <c r="H13" s="10" t="n"/>
+      <c r="I13" s="10" t="n"/>
+      <c r="J13" s="7" t="n"/>
+      <c r="K13" s="7" t="n"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="7" t="inlineStr">
         <is>
           <t>HUDCO</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="3" t="n">
         <v>227.641346</v>
       </c>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="10" t="n"/>
+      <c r="G14" s="10" t="n"/>
+      <c r="H14" s="10" t="n"/>
+      <c r="I14" s="10" t="n"/>
+      <c r="J14" s="7" t="n"/>
+      <c r="K14" s="7" t="n"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="7" t="inlineStr">
         <is>
           <t>BHEL</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" s="5" t="n">
+      <c r="B15" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="n">
         <v>256.0703</v>
       </c>
+      <c r="D15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="10" t="n"/>
+      <c r="G15" s="10" t="n"/>
+      <c r="H15" s="10" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="7" t="n"/>
+      <c r="K15" s="7" t="n"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="7" t="inlineStr">
         <is>
           <t>ASHOKLEY</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="3" t="n">
         <v>238.86</v>
       </c>
+      <c r="D16" s="7" t="n"/>
+      <c r="E16" s="7" t="n"/>
+      <c r="F16" s="10" t="n"/>
+      <c r="G16" s="10" t="n"/>
+      <c r="H16" s="10" t="n"/>
+      <c r="I16" s="10" t="n"/>
+      <c r="J16" s="7" t="n"/>
+      <c r="K16" s="7" t="n"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="7" t="inlineStr">
         <is>
           <t>NLCINDIA</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="n">
+      <c r="B17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="n">
         <v>231.9561</v>
       </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="10" t="n"/>
+      <c r="G17" s="10" t="n"/>
+      <c r="H17" s="10" t="n"/>
+      <c r="I17" s="10" t="n"/>
+      <c r="J17" s="7" t="n"/>
+      <c r="K17" s="7" t="n"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="7" t="inlineStr">
         <is>
           <t>CASTROLIND</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" s="5" t="n">
+      <c r="B18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="n">
         <v>214.94</v>
       </c>
+      <c r="D18" s="7" t="n"/>
+      <c r="E18" s="7" t="n"/>
+      <c r="F18" s="10" t="n"/>
+      <c r="G18" s="10" t="n"/>
+      <c r="H18" s="10" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="7" t="n"/>
+      <c r="K18" s="7" t="n"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="7" t="inlineStr">
         <is>
           <t>ONGC</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="3" t="n">
         <v>252.4742268041237</v>
       </c>
+      <c r="D19" s="7" t="n"/>
+      <c r="E19" s="7" t="n"/>
+      <c r="F19" s="10" t="n"/>
+      <c r="G19" s="10" t="n"/>
+      <c r="H19" s="10" t="n"/>
+      <c r="I19" s="10" t="n"/>
+      <c r="J19" s="7" t="n"/>
+      <c r="K19" s="7" t="n"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="7" t="inlineStr">
         <is>
           <t>ETERNAL</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" s="5" t="n">
+      <c r="B20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="n">
         <v>250.9222908971779</v>
       </c>
+      <c r="D20" s="7" t="n"/>
+      <c r="E20" s="7" t="n"/>
+      <c r="F20" s="10" t="n"/>
+      <c r="G20" s="10" t="n"/>
+      <c r="H20" s="10" t="n"/>
+      <c r="I20" s="10" t="n"/>
+      <c r="J20" s="7" t="n"/>
+      <c r="K20" s="7" t="n"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="7" t="inlineStr">
         <is>
           <t>JSWINFRA</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" s="5" t="n">
+      <c r="B21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="n">
         <v>302.8969072164949</v>
       </c>
+      <c r="D21" s="7" t="n"/>
+      <c r="E21" s="7" t="n"/>
+      <c r="F21" s="10" t="n"/>
+      <c r="G21" s="10" t="n"/>
+      <c r="H21" s="10" t="n"/>
+      <c r="I21" s="10" t="n"/>
+      <c r="J21" s="7" t="n"/>
+      <c r="K21" s="7" t="n"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="7" t="inlineStr">
         <is>
           <t>POWERGRID</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" s="5" t="n">
+      <c r="B22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="n">
         <v>286.7514</v>
       </c>
-    </row>
-    <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" t="inlineStr">
+      <c r="D22" s="7" t="n"/>
+      <c r="E22" s="7" t="n"/>
+      <c r="F22" s="10" t="n"/>
+      <c r="G22" s="10" t="n"/>
+      <c r="H22" s="10" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="7" t="n"/>
+      <c r="K22" s="7" t="n"/>
+    </row>
+    <row r="23" ht="19.5" customHeight="1">
+      <c r="A23" s="7" t="inlineStr">
         <is>
           <t>BEL</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="3" t="n">
         <v>393.25</v>
       </c>
-    </row>
-    <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" t="inlineStr">
+      <c r="D23" s="7" t="n"/>
+      <c r="E23" s="7" t="n"/>
+      <c r="F23" s="10" t="n"/>
+      <c r="G23" s="10" t="n"/>
+      <c r="H23" s="10" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="7" t="n"/>
+      <c r="K23" s="7" t="n"/>
+    </row>
+    <row r="24" ht="19.5" customHeight="1">
+      <c r="A24" s="7" t="inlineStr">
         <is>
           <t>PETRONET</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="3" t="n">
         <v>300.991</v>
       </c>
-    </row>
-    <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" t="inlineStr">
+      <c r="D24" s="7" t="n"/>
+      <c r="E24" s="7" t="n"/>
+      <c r="F24" s="10" t="n"/>
+      <c r="G24" s="10" t="n"/>
+      <c r="H24" s="10" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="7" t="n"/>
+      <c r="K24" s="7" t="n"/>
+    </row>
+    <row r="25" ht="19.5" customHeight="1">
+      <c r="A25" s="7" t="inlineStr">
         <is>
           <t>WIPRO</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="3" t="n">
         <v>255.5154639175258</v>
       </c>
-    </row>
-    <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" t="inlineStr">
+      <c r="D25" s="7" t="n"/>
+      <c r="E25" s="7" t="n"/>
+      <c r="F25" s="10" t="n"/>
+      <c r="G25" s="10" t="n"/>
+      <c r="H25" s="10" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="7" t="n"/>
+      <c r="K25" s="7" t="n"/>
+    </row>
+    <row r="26" ht="19.5" customHeight="1">
+      <c r="A26" s="7" t="inlineStr">
         <is>
           <t>BIOCON</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="3" t="n">
         <v>356.5734934637049</v>
       </c>
-    </row>
-    <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" t="inlineStr">
+      <c r="D26" s="7" t="n"/>
+      <c r="E26" s="7" t="n"/>
+      <c r="F26" s="10" t="n"/>
+      <c r="G26" s="10" t="n"/>
+      <c r="H26" s="10" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="7" t="n"/>
+      <c r="K26" s="7" t="n"/>
+    </row>
+    <row r="27" ht="19.5" customHeight="1">
+      <c r="A27" s="7" t="inlineStr">
         <is>
           <t>INDUSTOWER</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" s="5" t="n">
+      <c r="B27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="n">
         <v>387.05</v>
       </c>
-    </row>
-    <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" t="inlineStr">
+      <c r="D27" s="7" t="n"/>
+      <c r="E27" s="7" t="n"/>
+      <c r="F27" s="10" t="n"/>
+      <c r="G27" s="10" t="n"/>
+      <c r="H27" s="10" t="n"/>
+      <c r="I27" s="10" t="n"/>
+      <c r="J27" s="7" t="n"/>
+      <c r="K27" s="7" t="n"/>
+    </row>
+    <row r="28" ht="19.5" customHeight="1">
+      <c r="A28" s="7" t="inlineStr">
         <is>
           <t>CROMPTON</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" s="5" t="n">
+      <c r="B28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="n">
         <v>346.6004</v>
       </c>
-    </row>
-    <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" t="inlineStr">
+      <c r="D28" s="7" t="n"/>
+      <c r="E28" s="7" t="n"/>
+      <c r="F28" s="10" t="n"/>
+      <c r="G28" s="10" t="n"/>
+      <c r="H28" s="10" t="n"/>
+      <c r="I28" s="10" t="n"/>
+      <c r="J28" s="7" t="n"/>
+      <c r="K28" s="7" t="n"/>
+    </row>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="7" t="inlineStr">
         <is>
           <t>RVNL</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="3" t="n">
         <v>411.4000000000001</v>
       </c>
-    </row>
-    <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" t="inlineStr">
+      <c r="D29" s="7" t="n"/>
+      <c r="E29" s="7" t="n"/>
+      <c r="F29" s="10" t="n"/>
+      <c r="G29" s="10" t="n"/>
+      <c r="H29" s="10" t="n"/>
+      <c r="I29" s="10" t="n"/>
+      <c r="J29" s="7" t="n"/>
+      <c r="K29" s="7" t="n"/>
+    </row>
+    <row r="30" ht="19.5" customHeight="1">
+      <c r="A30" s="7" t="inlineStr">
         <is>
           <t>EIHOTEL</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="n">
+      <c r="B30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="n">
         <v>364.53</v>
       </c>
-    </row>
-    <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" t="inlineStr">
+      <c r="D30" s="7" t="n"/>
+      <c r="E30" s="7" t="n"/>
+      <c r="F30" s="10" t="n"/>
+      <c r="G30" s="10" t="n"/>
+      <c r="H30" s="10" t="n"/>
+      <c r="I30" s="10" t="n"/>
+      <c r="J30" s="7" t="n"/>
+      <c r="K30" s="7" t="n"/>
+    </row>
+    <row r="31" ht="19.5" customHeight="1">
+      <c r="A31" s="7" t="inlineStr">
         <is>
           <t>TATAPOWER</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" s="5" t="n">
+      <c r="B31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="n">
         <v>399.7500000000001</v>
       </c>
-    </row>
-    <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" t="inlineStr">
+      <c r="D31" s="7" t="n"/>
+      <c r="E31" s="7" t="n"/>
+      <c r="F31" s="10" t="n"/>
+      <c r="G31" s="10" t="n"/>
+      <c r="H31" s="10" t="n"/>
+      <c r="I31" s="10" t="n"/>
+      <c r="J31" s="7" t="n"/>
+      <c r="K31" s="7" t="n"/>
+    </row>
+    <row r="32" ht="19.5" customHeight="1">
+      <c r="A32" s="7" t="inlineStr">
         <is>
           <t>EXIDEIND</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" s="5" t="n">
+      <c r="B32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" s="3" t="n">
         <v>395.5670103092784</v>
       </c>
-    </row>
-    <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" t="inlineStr">
+      <c r="D32" s="7" t="n"/>
+      <c r="E32" s="7" t="n"/>
+      <c r="F32" s="10" t="n"/>
+      <c r="G32" s="10" t="n"/>
+      <c r="H32" s="10" t="n"/>
+      <c r="I32" s="10" t="n"/>
+      <c r="J32" s="7" t="n"/>
+      <c r="K32" s="7" t="n"/>
+    </row>
+    <row r="33" ht="19.5" customHeight="1">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>OIL</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="n">
+      <c r="B33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" s="3" t="n">
         <v>471.8567329152939</v>
       </c>
-    </row>
-    <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" t="inlineStr">
+      <c r="D33" s="7" t="n"/>
+      <c r="E33" s="7" t="n"/>
+      <c r="F33" s="10" t="n"/>
+      <c r="G33" s="10" t="n"/>
+      <c r="H33" s="10" t="n"/>
+      <c r="I33" s="10" t="n"/>
+      <c r="J33" s="7" t="n"/>
+      <c r="K33" s="7" t="n"/>
+    </row>
+    <row r="34" ht="19.5" customHeight="1">
+      <c r="A34" s="7" t="inlineStr">
         <is>
           <t>SWIGGY</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" s="5" t="n">
+      <c r="B34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" s="3" t="n">
         <v>356.151655631316</v>
       </c>
-    </row>
-    <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" t="inlineStr">
+      <c r="D34" s="7" t="n"/>
+      <c r="E34" s="7" t="n"/>
+      <c r="F34" s="10" t="n"/>
+      <c r="G34" s="10" t="n"/>
+      <c r="H34" s="10" t="n"/>
+      <c r="I34" s="10" t="n"/>
+      <c r="J34" s="7" t="n"/>
+      <c r="K34" s="7" t="n"/>
+    </row>
+    <row r="35" ht="19.5" customHeight="1">
+      <c r="A35" s="7" t="inlineStr">
         <is>
           <t>FSL</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" s="5" t="n">
+      <c r="B35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="3" t="n">
         <v>383.2954999999999</v>
       </c>
-    </row>
-    <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" t="inlineStr">
+      <c r="D35" s="7" t="n"/>
+      <c r="E35" s="7" t="n"/>
+      <c r="F35" s="10" t="n"/>
+      <c r="G35" s="10" t="n"/>
+      <c r="H35" s="10" t="n"/>
+      <c r="I35" s="10" t="n"/>
+      <c r="J35" s="7" t="n"/>
+      <c r="K35" s="7" t="n"/>
+    </row>
+    <row r="36" ht="19.5" customHeight="1">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>COALINDIA</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5" t="n">
+      <c r="B36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" s="3" t="n">
         <v>388.0485</v>
       </c>
+      <c r="D36" s="7" t="n"/>
+      <c r="E36" s="7" t="n"/>
+      <c r="F36" s="10" t="n"/>
+      <c r="G36" s="10" t="n"/>
+      <c r="H36" s="10" t="n"/>
+      <c r="I36" s="10" t="n"/>
+      <c r="J36" s="7" t="n"/>
+      <c r="K36" s="7" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="7" t="inlineStr">
         <is>
           <t>PFC</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="3" t="n">
         <v>405.2</v>
       </c>
+      <c r="D37" s="7" t="n"/>
+      <c r="E37" s="7" t="n"/>
+      <c r="F37" s="10" t="n"/>
+      <c r="G37" s="10" t="n"/>
+      <c r="H37" s="10" t="n"/>
+      <c r="I37" s="10" t="n"/>
+      <c r="J37" s="7" t="n"/>
+      <c r="K37" s="7" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="7" t="inlineStr">
         <is>
           <t>APOLLOTYRE</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="3" t="n">
         <v>446.1145624</v>
       </c>
+      <c r="D38" s="7" t="n"/>
+      <c r="E38" s="7" t="n"/>
+      <c r="F38" s="10" t="n"/>
+      <c r="G38" s="10" t="n"/>
+      <c r="H38" s="10" t="n"/>
+      <c r="I38" s="10" t="n"/>
+      <c r="J38" s="7" t="n"/>
+      <c r="K38" s="7" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="7" t="inlineStr">
         <is>
           <t>RECLTD</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="5" t="n">
+      <c r="C39" s="3" t="n">
         <v>396.7979</v>
       </c>
+      <c r="D39" s="7" t="n"/>
+      <c r="E39" s="7" t="n"/>
+      <c r="F39" s="10" t="n"/>
+      <c r="G39" s="10" t="n"/>
+      <c r="H39" s="10" t="n"/>
+      <c r="I39" s="10" t="n"/>
+      <c r="J39" s="7" t="n"/>
+      <c r="K39" s="7" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="7" t="inlineStr">
         <is>
           <t>HINDZINC</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="3" t="n">
         <v>511.9210219271972</v>
       </c>
+      <c r="D40" s="7" t="n"/>
+      <c r="E40" s="7" t="n"/>
+      <c r="F40" s="10" t="n"/>
+      <c r="G40" s="10" t="n"/>
+      <c r="H40" s="10" t="n"/>
+      <c r="I40" s="10" t="n"/>
+      <c r="J40" s="7" t="n"/>
+      <c r="K40" s="7" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="7" t="inlineStr">
         <is>
           <t>ITC</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" s="5" t="n">
+      <c r="B41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="n">
         <v>426.05</v>
       </c>
+      <c r="D41" s="7" t="n"/>
+      <c r="E41" s="7" t="n"/>
+      <c r="F41" s="10" t="n"/>
+      <c r="G41" s="10" t="n"/>
+      <c r="H41" s="10" t="n"/>
+      <c r="I41" s="10" t="n"/>
+      <c r="J41" s="7" t="n"/>
+      <c r="K41" s="7" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="7" t="inlineStr">
         <is>
           <t>VEDL</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="5" t="n">
+      <c r="C42" s="3" t="n">
         <v>461.6907216494845</v>
       </c>
+      <c r="D42" s="7" t="n"/>
+      <c r="E42" s="7" t="n"/>
+      <c r="F42" s="10" t="n"/>
+      <c r="G42" s="10" t="n"/>
+      <c r="H42" s="10" t="n"/>
+      <c r="I42" s="10" t="n"/>
+      <c r="J42" s="7" t="n"/>
+      <c r="K42" s="7" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="7" t="inlineStr">
         <is>
           <t>SUMICHEM</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="3" t="n">
         <v>503.01</v>
       </c>
+      <c r="D43" s="7" t="n"/>
+      <c r="E43" s="7" t="n"/>
+      <c r="F43" s="10" t="n"/>
+      <c r="G43" s="10" t="n"/>
+      <c r="H43" s="10" t="n"/>
+      <c r="I43" s="10" t="n"/>
+      <c r="J43" s="7" t="n"/>
+      <c r="K43" s="7" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="7" t="inlineStr">
         <is>
           <t>SONACOMS</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C44" s="5" t="n">
+      <c r="C44" s="3" t="n">
         <v>509.2056710000001</v>
       </c>
+      <c r="D44" s="7" t="n"/>
+      <c r="E44" s="7" t="n"/>
+      <c r="F44" s="10" t="n"/>
+      <c r="G44" s="10" t="n"/>
+      <c r="H44" s="10" t="n"/>
+      <c r="I44" s="10" t="n"/>
+      <c r="J44" s="7" t="n"/>
+      <c r="K44" s="7" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="7" t="inlineStr">
         <is>
           <t>AMBUJACEM</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" s="5" t="n">
+      <c r="B45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" s="3" t="n">
         <v>549.3595</v>
       </c>
+      <c r="D45" s="7" t="n"/>
+      <c r="E45" s="7" t="n"/>
+      <c r="F45" s="10" t="n"/>
+      <c r="G45" s="10" t="n"/>
+      <c r="H45" s="10" t="n"/>
+      <c r="I45" s="10" t="n"/>
+      <c r="J45" s="7" t="n"/>
+      <c r="K45" s="7" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="7" t="inlineStr">
         <is>
           <t>JSWENERGY</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" s="5" t="n">
+      <c r="B46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" s="3" t="n">
         <v>521.6494845360826</v>
       </c>
+      <c r="D46" s="7" t="n"/>
+      <c r="E46" s="7" t="n"/>
+      <c r="F46" s="10" t="n"/>
+      <c r="G46" s="10" t="n"/>
+      <c r="H46" s="10" t="n"/>
+      <c r="I46" s="10" t="n"/>
+      <c r="J46" s="7" t="n"/>
+      <c r="K46" s="7" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="7" t="inlineStr">
         <is>
           <t>VBL</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" s="5" t="n">
+      <c r="B47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" s="3" t="n">
         <v>473.9032</v>
       </c>
+      <c r="D47" s="7" t="n"/>
+      <c r="E47" s="7" t="n"/>
+      <c r="F47" s="10" t="n"/>
+      <c r="G47" s="10" t="n"/>
+      <c r="H47" s="10" t="n"/>
+      <c r="I47" s="10" t="n"/>
+      <c r="J47" s="7" t="n"/>
+      <c r="K47" s="7" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="7" t="inlineStr">
         <is>
           <t>BERGEPAINT</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C48" s="5" t="n">
+      <c r="C48" s="3" t="n">
         <v>569.7422680412371</v>
       </c>
+      <c r="D48" s="7" t="n"/>
+      <c r="E48" s="7" t="n"/>
+      <c r="F48" s="10" t="n"/>
+      <c r="G48" s="10" t="n"/>
+      <c r="H48" s="10" t="n"/>
+      <c r="I48" s="10" t="n"/>
+      <c r="J48" s="7" t="n"/>
+      <c r="K48" s="7" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="7" t="inlineStr">
         <is>
           <t>DABUR</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="3" t="n">
         <v>479.45</v>
       </c>
+      <c r="D49" s="7" t="n"/>
+      <c r="E49" s="7" t="n"/>
+      <c r="F49" s="10" t="n"/>
+      <c r="G49" s="10" t="n"/>
+      <c r="H49" s="10" t="n"/>
+      <c r="I49" s="10" t="n"/>
+      <c r="J49" s="7" t="n"/>
+      <c r="K49" s="7" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="7" t="inlineStr">
         <is>
           <t>LICHSGFIN</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" s="5" t="n">
+      <c r="B50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" s="3" t="n">
         <v>594.1</v>
       </c>
+      <c r="D50" s="7" t="n"/>
+      <c r="E50" s="7" t="n"/>
+      <c r="F50" s="10" t="n"/>
+      <c r="G50" s="10" t="n"/>
+      <c r="H50" s="10" t="n"/>
+      <c r="I50" s="10" t="n"/>
+      <c r="J50" s="7" t="n"/>
+      <c r="K50" s="7" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="7" t="inlineStr">
         <is>
           <t>EMAMILTD</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" s="5" t="n">
+      <c r="B51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="3" t="n">
         <v>575.889</v>
       </c>
+      <c r="D51" s="7" t="n"/>
+      <c r="E51" s="7" t="n"/>
+      <c r="F51" s="10" t="n"/>
+      <c r="G51" s="10" t="n"/>
+      <c r="H51" s="10" t="n"/>
+      <c r="I51" s="10" t="n"/>
+      <c r="J51" s="7" t="n"/>
+      <c r="K51" s="7" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="7" t="inlineStr">
         <is>
           <t>CHAMBLFERT</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="3" t="n">
         <v>548.1024769999999</v>
       </c>
+      <c r="D52" s="7" t="n"/>
+      <c r="E52" s="7" t="n"/>
+      <c r="F52" s="10" t="n"/>
+      <c r="G52" s="10" t="n"/>
+      <c r="H52" s="10" t="n"/>
+      <c r="I52" s="10" t="n"/>
+      <c r="J52" s="7" t="n"/>
+      <c r="K52" s="7" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="7" t="inlineStr">
         <is>
           <t>LAURUSLABS</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="5" t="n">
+      <c r="C53" s="3" t="n">
         <v>666.2188976774814</v>
       </c>
+      <c r="D53" s="7" t="n"/>
+      <c r="E53" s="7" t="n"/>
+      <c r="F53" s="10" t="n"/>
+      <c r="G53" s="10" t="n"/>
+      <c r="H53" s="10" t="n"/>
+      <c r="I53" s="10" t="n"/>
+      <c r="J53" s="7" t="n"/>
+      <c r="K53" s="7" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="7" t="inlineStr">
         <is>
           <t>ICICIPRULI</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" s="5" t="n">
+      <c r="B54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="n">
         <v>635.7768000000001</v>
       </c>
+      <c r="D54" s="7" t="n"/>
+      <c r="E54" s="7" t="n"/>
+      <c r="F54" s="10" t="n"/>
+      <c r="G54" s="10" t="n"/>
+      <c r="H54" s="10" t="n"/>
+      <c r="I54" s="10" t="n"/>
+      <c r="J54" s="7" t="n"/>
+      <c r="K54" s="7" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="7" t="inlineStr">
         <is>
           <t>CGCL</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" s="5" t="n">
+      <c r="B55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" s="3" t="n">
         <v>177.9298309222686</v>
       </c>
+      <c r="D55" s="7" t="n"/>
+      <c r="E55" s="7" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
+      <c r="I55" s="10" t="n"/>
+      <c r="J55" s="7" t="n"/>
+      <c r="K55" s="7" t="n"/>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="7" t="inlineStr">
         <is>
           <t>CESC</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" s="5" t="n">
+      <c r="B56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" s="3" t="n">
         <v>165.3268</v>
       </c>
+      <c r="D56" s="7" t="n"/>
+      <c r="E56" s="7" t="n"/>
+      <c r="F56" s="10" t="n"/>
+      <c r="G56" s="10" t="n"/>
+      <c r="H56" s="10" t="n"/>
+      <c r="I56" s="10" t="n"/>
+      <c r="J56" s="7" t="n"/>
+      <c r="K56" s="7" t="n"/>
     </row>
     <row r="57" ht="18.75" customHeight="1">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="7" t="inlineStr">
         <is>
           <t>ENGINERSIN</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C57" s="5" t="n">
+      <c r="C57" s="3" t="n">
         <v>220.5200000000002</v>
       </c>
+      <c r="D57" s="7" t="n"/>
+      <c r="E57" s="7" t="n"/>
+      <c r="F57" s="10" t="n"/>
+      <c r="G57" s="10" t="n"/>
+      <c r="H57" s="10" t="n"/>
+      <c r="I57" s="10" t="n"/>
+      <c r="J57" s="7" t="n"/>
+      <c r="K57" s="7" t="n"/>
     </row>
     <row r="58" ht="18.75" customHeight="1">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="7" t="inlineStr">
         <is>
           <t>FINPIPE</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" s="5" t="n">
+      <c r="B58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" s="3" t="n">
         <v>221.81</v>
       </c>
+      <c r="D58" s="7" t="n"/>
+      <c r="E58" s="7" t="n"/>
+      <c r="F58" s="10" t="n"/>
+      <c r="G58" s="10" t="n"/>
+      <c r="H58" s="10" t="n"/>
+      <c r="I58" s="10" t="n"/>
+      <c r="J58" s="7" t="n"/>
+      <c r="K58" s="7" t="n"/>
     </row>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="7" t="inlineStr">
         <is>
           <t>GPIL</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C59" s="5" t="n">
+      <c r="C59" s="3" t="n">
         <v>183.635453</v>
       </c>
+      <c r="D59" s="7" t="n"/>
+      <c r="E59" s="7" t="n"/>
+      <c r="F59" s="10" t="n"/>
+      <c r="G59" s="10" t="n"/>
+      <c r="H59" s="10" t="n"/>
+      <c r="I59" s="10" t="n"/>
+      <c r="J59" s="7" t="n"/>
+      <c r="K59" s="7" t="n"/>
     </row>
     <row r="60" ht="18.75" customHeight="1">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="7" t="inlineStr">
         <is>
           <t>GSPL</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" s="5" t="n">
+      <c r="B60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" s="3" t="n">
         <v>334.7</v>
       </c>
+      <c r="D60" s="7" t="n"/>
+      <c r="E60" s="7" t="n"/>
+      <c r="F60" s="10" t="n"/>
+      <c r="G60" s="10" t="n"/>
+      <c r="H60" s="10" t="n"/>
+      <c r="I60" s="10" t="n"/>
+      <c r="J60" s="7" t="n"/>
+      <c r="K60" s="7" t="n"/>
     </row>
     <row r="61" ht="18.75" customHeight="1">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="7" t="inlineStr">
         <is>
           <t>HFCL</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C61" s="5" t="n">
+      <c r="B61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="n">
         <v>90.36082474226804</v>
       </c>
+      <c r="D61" s="7" t="n"/>
+      <c r="E61" s="7" t="n"/>
+      <c r="F61" s="10" t="n"/>
+      <c r="G61" s="10" t="n"/>
+      <c r="H61" s="10" t="n"/>
+      <c r="I61" s="10" t="n"/>
+      <c r="J61" s="7" t="n"/>
+      <c r="K61" s="7" t="n"/>
     </row>
     <row r="62" ht="18.75" customHeight="1">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="7" t="inlineStr">
         <is>
           <t>HINDCOPPER</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C62" s="5" t="n">
+      <c r="B62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C62" s="3" t="n">
         <v>254.79</v>
       </c>
+      <c r="D62" s="7" t="n"/>
+      <c r="E62" s="7" t="n"/>
+      <c r="F62" s="10" t="n"/>
+      <c r="G62" s="10" t="n"/>
+      <c r="H62" s="10" t="n"/>
+      <c r="I62" s="10" t="n"/>
+      <c r="J62" s="7" t="n"/>
+      <c r="K62" s="7" t="n"/>
     </row>
     <row r="63" ht="18.75" customHeight="1">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="7" t="inlineStr">
         <is>
           <t>IRCON</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C63" s="5" t="n">
+      <c r="C63" s="3" t="n">
         <v>204.0174301200976</v>
       </c>
+      <c r="D63" s="7" t="n"/>
+      <c r="E63" s="7" t="n"/>
+      <c r="F63" s="10" t="n"/>
+      <c r="G63" s="10" t="n"/>
+      <c r="H63" s="10" t="n"/>
+      <c r="I63" s="10" t="n"/>
+      <c r="J63" s="7" t="n"/>
+      <c r="K63" s="7" t="n"/>
     </row>
     <row r="64" ht="18.75" customHeight="1">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="7" t="inlineStr">
         <is>
           <t>JAIBALAJI</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" s="3" t="n">
         <v>101.466656</v>
       </c>
+      <c r="D64" s="7" t="n"/>
+      <c r="E64" s="7" t="n"/>
+      <c r="F64" s="10" t="n"/>
+      <c r="G64" s="10" t="n"/>
+      <c r="H64" s="10" t="n"/>
+      <c r="I64" s="10" t="n"/>
+      <c r="J64" s="7" t="n"/>
+      <c r="K64" s="7" t="n"/>
     </row>
     <row r="65" ht="18.75" customHeight="1">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="7" t="inlineStr">
         <is>
           <t>JPPOWER</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C65" s="5" t="n">
+      <c r="C65" s="3" t="n">
         <v>17.8052802642079</v>
       </c>
+      <c r="D65" s="7" t="n"/>
+      <c r="E65" s="7" t="n"/>
+      <c r="F65" s="10" t="n"/>
+      <c r="G65" s="10" t="n"/>
+      <c r="H65" s="10" t="n"/>
+      <c r="I65" s="10" t="n"/>
+      <c r="J65" s="7" t="n"/>
+      <c r="K65" s="7" t="n"/>
     </row>
     <row r="66" ht="18.75" customHeight="1">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="7" t="inlineStr">
         <is>
           <t>JWL</t>
         </is>
       </c>
-      <c r="B66" s="4" t="n">
+      <c r="B66" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C66" s="5" t="n">
+      <c r="C66" s="3" t="n">
         <v>387.660209</v>
       </c>
+      <c r="D66" s="7" t="n"/>
+      <c r="E66" s="7" t="n"/>
+      <c r="F66" s="10" t="n"/>
+      <c r="G66" s="10" t="n"/>
+      <c r="H66" s="10" t="n"/>
+      <c r="I66" s="10" t="n"/>
+      <c r="J66" s="7" t="n"/>
+      <c r="K66" s="7" t="n"/>
     </row>
     <row r="67" ht="18.75" customHeight="1">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="7" t="inlineStr">
         <is>
           <t>KANSAINER</t>
         </is>
       </c>
-      <c r="B67" s="4" t="n">
+      <c r="B67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="3" t="n">
         <v>246.6128</v>
       </c>
+      <c r="D67" s="7" t="n"/>
+      <c r="E67" s="7" t="n"/>
+      <c r="F67" s="10" t="n"/>
+      <c r="G67" s="10" t="n"/>
+      <c r="H67" s="10" t="n"/>
+      <c r="I67" s="10" t="n"/>
+      <c r="J67" s="7" t="n"/>
+      <c r="K67" s="7" t="n"/>
     </row>
     <row r="68" ht="18.75" customHeight="1">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="7" t="inlineStr">
         <is>
           <t>MRPL</t>
         </is>
       </c>
-      <c r="B68" s="4" t="n">
+      <c r="B68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C68" s="5" t="n">
+      <c r="C68" s="3" t="n">
         <v>139.074429</v>
       </c>
+      <c r="D68" s="7" t="n"/>
+      <c r="E68" s="7" t="n"/>
+      <c r="F68" s="10" t="n"/>
+      <c r="G68" s="10" t="n"/>
+      <c r="H68" s="10" t="n"/>
+      <c r="I68" s="10" t="n"/>
+      <c r="J68" s="7" t="n"/>
+      <c r="K68" s="7" t="n"/>
     </row>
     <row r="69" ht="18.75" customHeight="1">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="7" t="inlineStr">
         <is>
           <t>RAILTEL</t>
         </is>
       </c>
-      <c r="B69" s="4" t="n">
+      <c r="B69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C69" s="5" t="n">
+      <c r="C69" s="3" t="n">
         <v>428.9510043575301</v>
       </c>
+      <c r="D69" s="7" t="n"/>
+      <c r="E69" s="7" t="n"/>
+      <c r="F69" s="10" t="n"/>
+      <c r="G69" s="10" t="n"/>
+      <c r="H69" s="10" t="n"/>
+      <c r="I69" s="10" t="n"/>
+      <c r="J69" s="7" t="n"/>
+      <c r="K69" s="7" t="n"/>
     </row>
     <row r="70" ht="18.75" customHeight="1">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="7" t="inlineStr">
         <is>
           <t>REDINGTON</t>
         </is>
       </c>
-      <c r="B70" s="4" t="n">
+      <c r="B70" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" s="3" t="n">
         <v>300.0476192729951</v>
       </c>
+      <c r="D70" s="7" t="n"/>
+      <c r="E70" s="7" t="n"/>
+      <c r="F70" s="10" t="n"/>
+      <c r="G70" s="10" t="n"/>
+      <c r="H70" s="10" t="n"/>
+      <c r="I70" s="10" t="n"/>
+      <c r="J70" s="7" t="n"/>
+      <c r="K70" s="7" t="n"/>
     </row>
     <row r="71" ht="18.75" customHeight="1">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="7" t="inlineStr">
         <is>
           <t>RITES</t>
         </is>
       </c>
-      <c r="B71" s="4" t="n">
+      <c r="B71" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C71" s="5" t="n">
+      <c r="C71" s="3" t="n">
         <v>292.2577319587629</v>
       </c>
+      <c r="D71" s="7" t="n"/>
+      <c r="E71" s="7" t="n"/>
+      <c r="F71" s="10" t="n"/>
+      <c r="G71" s="10" t="n"/>
+      <c r="H71" s="10" t="n"/>
+      <c r="I71" s="10" t="n"/>
+      <c r="J71" s="7" t="n"/>
+      <c r="K71" s="7" t="n"/>
     </row>
     <row r="72" ht="18.75" customHeight="1">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="7" t="inlineStr">
         <is>
           <t>TRIDENT</t>
         </is>
       </c>
-      <c r="B72" s="4" t="n">
+      <c r="B72" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C72" s="5" t="n">
+      <c r="C72" s="3" t="n">
         <v>30.936792</v>
       </c>
+      <c r="D72" s="7" t="n"/>
+      <c r="E72" s="7" t="n"/>
+      <c r="F72" s="10" t="n"/>
+      <c r="G72" s="10" t="n"/>
+      <c r="H72" s="10" t="n"/>
+      <c r="I72" s="10" t="n"/>
+      <c r="J72" s="7" t="n"/>
+      <c r="K72" s="7" t="n"/>
     </row>
     <row r="73" ht="18.75" customHeight="1">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="7" t="inlineStr">
         <is>
           <t>ARKADE</t>
         </is>
       </c>
-      <c r="B73" s="4" t="n">
+      <c r="B73" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" s="3" t="n">
         <v>190.86</v>
       </c>
+      <c r="D73" s="7" t="n"/>
+      <c r="E73" s="7" t="n"/>
+      <c r="F73" s="10" t="n"/>
+      <c r="G73" s="10" t="n"/>
+      <c r="H73" s="10" t="n"/>
+      <c r="I73" s="10" t="n"/>
+      <c r="J73" s="7" t="n"/>
+      <c r="K73" s="7" t="n"/>
     </row>
     <row r="74" ht="18.75" customHeight="1">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="7" t="inlineStr">
         <is>
           <t>ASHOKA</t>
         </is>
       </c>
-      <c r="B74" s="4" t="n">
+      <c r="B74" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C74" s="5" t="n">
+      <c r="C74" s="3" t="n">
         <v>207.985945</v>
       </c>
+      <c r="D74" s="7" t="n"/>
+      <c r="E74" s="7" t="n"/>
+      <c r="F74" s="10" t="n"/>
+      <c r="G74" s="10" t="n"/>
+      <c r="H74" s="10" t="n"/>
+      <c r="I74" s="10" t="n"/>
+      <c r="J74" s="7" t="n"/>
+      <c r="K74" s="7" t="n"/>
     </row>
     <row r="75" ht="18.75" customHeight="1">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="7" t="inlineStr">
         <is>
           <t>BAJAJCON</t>
         </is>
       </c>
-      <c r="B75" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C75" s="5" t="n">
+      <c r="B75" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C75" s="3" t="n">
         <v>176.2587</v>
       </c>
+      <c r="D75" s="7" t="n"/>
+      <c r="E75" s="7" t="n"/>
+      <c r="F75" s="10" t="n"/>
+      <c r="G75" s="10" t="n"/>
+      <c r="H75" s="10" t="n"/>
+      <c r="I75" s="10" t="n"/>
+      <c r="J75" s="7" t="n"/>
+      <c r="K75" s="7" t="n"/>
     </row>
     <row r="76" ht="18.75" customHeight="1">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="7" t="inlineStr">
         <is>
           <t>BALMLAWRIE</t>
         </is>
       </c>
-      <c r="B76" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C76" s="5" t="n">
+      <c r="B76" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="3" t="n">
         <v>214.17</v>
       </c>
+      <c r="D76" s="7" t="n"/>
+      <c r="E76" s="7" t="n"/>
+      <c r="F76" s="10" t="n"/>
+      <c r="G76" s="10" t="n"/>
+      <c r="H76" s="10" t="n"/>
+      <c r="I76" s="10" t="n"/>
+      <c r="J76" s="7" t="n"/>
+      <c r="K76" s="7" t="n"/>
     </row>
     <row r="77" ht="18.75" customHeight="1">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="7" t="inlineStr">
         <is>
           <t>BANCOINDIA</t>
         </is>
       </c>
-      <c r="B77" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C77" s="4" t="n">
+      <c r="B77" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C77" s="2" t="n">
         <v>612.4866189752519</v>
       </c>
+      <c r="D77" s="7" t="n"/>
+      <c r="E77" s="7" t="n"/>
+      <c r="F77" s="10" t="n"/>
+      <c r="G77" s="10" t="n"/>
+      <c r="H77" s="10" t="n"/>
+      <c r="I77" s="10" t="n"/>
+      <c r="J77" s="7" t="n"/>
+      <c r="K77" s="7" t="n"/>
     </row>
     <row r="78" ht="18.75" customHeight="1">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="7" t="inlineStr">
         <is>
           <t>BEPL</t>
         </is>
       </c>
-      <c r="B78" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C78" s="5" t="n">
+      <c r="B78" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C78" s="3" t="n">
         <v>118.0927835051546</v>
       </c>
+      <c r="D78" s="7" t="n"/>
+      <c r="E78" s="7" t="n"/>
+      <c r="F78" s="10" t="n"/>
+      <c r="G78" s="10" t="n"/>
+      <c r="H78" s="10" t="n"/>
+      <c r="I78" s="10" t="n"/>
+      <c r="J78" s="7" t="n"/>
+      <c r="K78" s="7" t="n"/>
     </row>
     <row r="79" ht="18.75" customHeight="1">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="7" t="inlineStr">
         <is>
           <t>CEIGALL</t>
         </is>
       </c>
-      <c r="B79" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C79" s="5" t="n">
+      <c r="B79" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" s="3" t="n">
         <v>251.35</v>
       </c>
+      <c r="D79" s="7" t="n"/>
+      <c r="E79" s="7" t="n"/>
+      <c r="F79" s="10" t="n"/>
+      <c r="G79" s="10" t="n"/>
+      <c r="H79" s="10" t="n"/>
+      <c r="I79" s="10" t="n"/>
+      <c r="J79" s="7" t="n"/>
+      <c r="K79" s="7" t="n"/>
     </row>
     <row r="80" ht="18.75" customHeight="1">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="7" t="inlineStr">
         <is>
           <t>DBCORP</t>
         </is>
       </c>
-      <c r="B80" s="4" t="n">
+      <c r="B80" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C80" s="5" t="n">
+      <c r="C80" s="3" t="n">
         <v>275.6080217120481</v>
       </c>
+      <c r="D80" s="7" t="n"/>
+      <c r="E80" s="7" t="n"/>
+      <c r="F80" s="10" t="n"/>
+      <c r="G80" s="10" t="n"/>
+      <c r="H80" s="10" t="n"/>
+      <c r="I80" s="10" t="n"/>
+      <c r="J80" s="7" t="n"/>
+      <c r="K80" s="7" t="n"/>
     </row>
     <row r="81" ht="18.75" customHeight="1">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="7" t="inlineStr">
         <is>
           <t>DDEVPLSTIK</t>
         </is>
       </c>
-      <c r="B81" s="4" t="n">
+      <c r="B81" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C81" s="5" t="n">
+      <c r="C81" s="3" t="n">
         <v>279.8865979381442</v>
       </c>
+      <c r="D81" s="7" t="n"/>
+      <c r="E81" s="7" t="n"/>
+      <c r="F81" s="10" t="n"/>
+      <c r="G81" s="10" t="n"/>
+      <c r="H81" s="10" t="n"/>
+      <c r="I81" s="10" t="n"/>
+      <c r="J81" s="7" t="n"/>
+      <c r="K81" s="7" t="n"/>
     </row>
     <row r="82" ht="18.75" customHeight="1">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="7" t="inlineStr">
         <is>
           <t>EIEL</t>
         </is>
       </c>
-      <c r="B82" s="4" t="n">
+      <c r="B82" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C82" s="5" t="n">
+      <c r="C82" s="3" t="n">
         <v>232.731615</v>
       </c>
+      <c r="D82" s="7" t="n"/>
+      <c r="E82" s="7" t="n"/>
+      <c r="F82" s="10" t="n"/>
+      <c r="G82" s="10" t="n"/>
+      <c r="H82" s="10" t="n"/>
+      <c r="I82" s="10" t="n"/>
+      <c r="J82" s="7" t="n"/>
+      <c r="K82" s="7" t="n"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="7" t="inlineStr">
         <is>
           <t>EVEREADY</t>
         </is>
       </c>
-      <c r="B83" s="4" t="n">
+      <c r="B83" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C83" s="5" t="n">
+      <c r="C83" s="3" t="n">
         <v>331.087256881709</v>
       </c>
+      <c r="D83" s="7" t="n"/>
+      <c r="E83" s="7" t="n"/>
+      <c r="F83" s="10" t="n"/>
+      <c r="G83" s="10" t="n"/>
+      <c r="H83" s="10" t="n"/>
+      <c r="I83" s="10" t="n"/>
+      <c r="J83" s="7" t="n"/>
+      <c r="K83" s="7" t="n"/>
     </row>
     <row r="84" ht="18.75" customHeight="1">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="7" t="inlineStr">
         <is>
           <t>FLAIR</t>
         </is>
       </c>
-      <c r="B84" s="4" t="n">
+      <c r="B84" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C84" s="5" t="n">
+      <c r="C84" s="3" t="n">
         <v>259.8380031</v>
       </c>
+      <c r="D84" s="7" t="n"/>
+      <c r="E84" s="7" t="n"/>
+      <c r="F84" s="10" t="n"/>
+      <c r="G84" s="10" t="n"/>
+      <c r="H84" s="10" t="n"/>
+      <c r="I84" s="10" t="n"/>
+      <c r="J84" s="7" t="n"/>
+      <c r="K84" s="7" t="n"/>
     </row>
     <row r="85" ht="18.75" customHeight="1">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="7" t="inlineStr">
         <is>
           <t>GOKULAGRO</t>
         </is>
       </c>
-      <c r="B85" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C85" s="5" t="n">
+      <c r="B85" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C85" s="3" t="n">
         <v>282.9798199761728</v>
       </c>
+      <c r="D85" s="7" t="n"/>
+      <c r="E85" s="7" t="n"/>
+      <c r="F85" s="10" t="n"/>
+      <c r="G85" s="10" t="n"/>
+      <c r="H85" s="10" t="n"/>
+      <c r="I85" s="10" t="n"/>
+      <c r="J85" s="7" t="n"/>
+      <c r="K85" s="7" t="n"/>
     </row>
     <row r="86" ht="18.75" customHeight="1">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="7" t="inlineStr">
         <is>
           <t>GOPAL</t>
         </is>
       </c>
-      <c r="B86" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C86" s="4" t="n">
+      <c r="B86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" s="2" t="n">
         <v>375.8191597647786</v>
       </c>
+      <c r="D86" s="7" t="n"/>
+      <c r="E86" s="7" t="n"/>
+      <c r="F86" s="10" t="n"/>
+      <c r="G86" s="10" t="n"/>
+      <c r="H86" s="10" t="n"/>
+      <c r="I86" s="10" t="n"/>
+      <c r="J86" s="7" t="n"/>
+      <c r="K86" s="7" t="n"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="7" t="inlineStr">
         <is>
           <t>HEIDELBERG</t>
         </is>
       </c>
-      <c r="B87" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C87" s="5" t="n">
+      <c r="B87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C87" s="3" t="n">
         <v>195.0088</v>
       </c>
+      <c r="D87" s="7" t="n"/>
+      <c r="E87" s="7" t="n"/>
+      <c r="F87" s="10" t="n"/>
+      <c r="G87" s="10" t="n"/>
+      <c r="H87" s="10" t="n"/>
+      <c r="I87" s="10" t="n"/>
+      <c r="J87" s="7" t="n"/>
+      <c r="K87" s="7" t="n"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="7" t="inlineStr">
         <is>
           <t>JKPAPER</t>
         </is>
       </c>
-      <c r="B88" s="4" t="n">
+      <c r="B88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C88" s="5" t="n">
+      <c r="C88" s="3" t="n">
         <v>362.8900000000002</v>
       </c>
+      <c r="D88" s="7" t="n"/>
+      <c r="E88" s="7" t="n"/>
+      <c r="F88" s="10" t="n"/>
+      <c r="G88" s="10" t="n"/>
+      <c r="H88" s="10" t="n"/>
+      <c r="I88" s="10" t="n"/>
+      <c r="J88" s="7" t="n"/>
+      <c r="K88" s="7" t="n"/>
     </row>
     <row r="89" ht="18.75" customHeight="1">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="7" t="inlineStr">
         <is>
           <t>JTEKTINDIA</t>
         </is>
       </c>
-      <c r="B89" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C89" s="5" t="n">
+      <c r="B89" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C89" s="3" t="n">
         <v>143.5979381443299</v>
       </c>
+      <c r="D89" s="7" t="n"/>
+      <c r="E89" s="7" t="n"/>
+      <c r="F89" s="10" t="n"/>
+      <c r="G89" s="10" t="n"/>
+      <c r="H89" s="10" t="n"/>
+      <c r="I89" s="10" t="n"/>
+      <c r="J89" s="7" t="n"/>
+      <c r="K89" s="7" t="n"/>
     </row>
     <row r="90" ht="18.75" customHeight="1">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="7" t="inlineStr">
         <is>
           <t>KCP</t>
         </is>
       </c>
-      <c r="B90" s="4" t="n">
+      <c r="B90" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C90" s="5" t="n">
+      <c r="C90" s="3" t="n">
         <v>210.5482</v>
       </c>
+      <c r="D90" s="7" t="n"/>
+      <c r="E90" s="7" t="n"/>
+      <c r="F90" s="10" t="n"/>
+      <c r="G90" s="10" t="n"/>
+      <c r="H90" s="10" t="n"/>
+      <c r="I90" s="10" t="n"/>
+      <c r="J90" s="7" t="n"/>
+      <c r="K90" s="7" t="n"/>
     </row>
     <row r="91" ht="18.75" customHeight="1">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="7" t="inlineStr">
         <is>
           <t>NAVNETEDUL</t>
         </is>
       </c>
-      <c r="B91" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C91" s="5" t="n">
+      <c r="B91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C91" s="3" t="n">
         <v>141.31</v>
       </c>
+      <c r="D91" s="7" t="n"/>
+      <c r="E91" s="7" t="n"/>
+      <c r="F91" s="10" t="n"/>
+      <c r="G91" s="10" t="n"/>
+      <c r="H91" s="10" t="n"/>
+      <c r="I91" s="10" t="n"/>
+      <c r="J91" s="7" t="n"/>
+      <c r="K91" s="7" t="n"/>
     </row>
     <row r="92" ht="18.75" customHeight="1">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="7" t="inlineStr">
         <is>
           <t>PENIND</t>
         </is>
       </c>
-      <c r="B92" s="4" t="n">
+      <c r="B92" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C92" s="5" t="n">
+      <c r="C92" s="3" t="n">
         <v>236.3917525773197</v>
       </c>
+      <c r="D92" s="7" t="n"/>
+      <c r="E92" s="7" t="n"/>
+      <c r="F92" s="10" t="n"/>
+      <c r="G92" s="10" t="n"/>
+      <c r="H92" s="10" t="n"/>
+      <c r="I92" s="10" t="n"/>
+      <c r="J92" s="7" t="n"/>
+      <c r="K92" s="7" t="n"/>
     </row>
     <row r="93" ht="18.75" customHeight="1">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="7" t="inlineStr">
         <is>
           <t>PRECWIRE</t>
         </is>
       </c>
-      <c r="B93" s="4" t="n">
+      <c r="B93" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C93" s="5" t="n">
+      <c r="C93" s="3" t="n">
         <v>183.87</v>
       </c>
+      <c r="D93" s="7" t="n"/>
+      <c r="E93" s="7" t="n"/>
+      <c r="F93" s="10" t="n"/>
+      <c r="G93" s="10" t="n"/>
+      <c r="H93" s="10" t="n"/>
+      <c r="I93" s="10" t="n"/>
+      <c r="J93" s="7" t="n"/>
+      <c r="K93" s="7" t="n"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="7" t="inlineStr">
         <is>
           <t>SAKSOFT</t>
         </is>
       </c>
-      <c r="B94" s="4" t="n">
+      <c r="B94" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="3" t="n">
         <v>202.7203</v>
       </c>
+      <c r="D94" s="7" t="n"/>
+      <c r="E94" s="7" t="n"/>
+      <c r="F94" s="10" t="n"/>
+      <c r="G94" s="10" t="n"/>
+      <c r="H94" s="10" t="n"/>
+      <c r="I94" s="10" t="n"/>
+      <c r="J94" s="7" t="n"/>
+      <c r="K94" s="7" t="n"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="7" t="inlineStr">
         <is>
           <t>SHAREINDIA</t>
         </is>
       </c>
-      <c r="B95" s="4" t="n">
+      <c r="B95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C95" s="5" t="n">
+      <c r="C95" s="3" t="n">
         <v>180.8247422680411</v>
       </c>
+      <c r="D95" s="7" t="n"/>
+      <c r="E95" s="7" t="n"/>
+      <c r="F95" s="10" t="n"/>
+      <c r="G95" s="10" t="n"/>
+      <c r="H95" s="10" t="n"/>
+      <c r="I95" s="10" t="n"/>
+      <c r="J95" s="7" t="n"/>
+      <c r="K95" s="7" t="n"/>
     </row>
     <row r="96" ht="18.75" customHeight="1">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="7" t="inlineStr">
         <is>
           <t>SDBL</t>
         </is>
       </c>
-      <c r="B96" s="4" t="n">
+      <c r="B96" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C96" s="5" t="n">
+      <c r="C96" s="3" t="n">
         <v>161.9194388351578</v>
       </c>
+      <c r="D96" s="7" t="n"/>
+      <c r="E96" s="7" t="n"/>
+      <c r="F96" s="10" t="n"/>
+      <c r="G96" s="10" t="n"/>
+      <c r="H96" s="10" t="n"/>
+      <c r="I96" s="10" t="n"/>
+      <c r="J96" s="7" t="n"/>
+      <c r="K96" s="7" t="n"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="7" t="inlineStr">
         <is>
           <t>SSWL</t>
         </is>
       </c>
-      <c r="B97" s="4" t="n">
+      <c r="B97" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C97" s="5" t="n">
+      <c r="C97" s="3" t="n">
         <v>249.4845360824742</v>
       </c>
+      <c r="D97" s="7" t="n"/>
+      <c r="E97" s="7" t="n"/>
+      <c r="F97" s="10" t="n"/>
+      <c r="G97" s="10" t="n"/>
+      <c r="H97" s="10" t="n"/>
+      <c r="I97" s="10" t="n"/>
+      <c r="J97" s="7" t="n"/>
+      <c r="K97" s="7" t="n"/>
     </row>
     <row r="98" ht="18.75" customHeight="1">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="7" t="inlineStr">
         <is>
           <t>SULA</t>
         </is>
       </c>
-      <c r="B98" s="4" t="n">
+      <c r="B98" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="C98" s="5" t="n">
+      <c r="C98" s="3" t="n">
         <v>305.3000000000001</v>
       </c>
+      <c r="D98" s="7" t="n"/>
+      <c r="E98" s="7" t="n"/>
+      <c r="F98" s="10" t="n"/>
+      <c r="G98" s="10" t="n"/>
+      <c r="H98" s="10" t="n"/>
+      <c r="I98" s="10" t="n"/>
+      <c r="J98" s="7" t="n"/>
+      <c r="K98" s="7" t="n"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="7" t="inlineStr">
         <is>
           <t>TI</t>
         </is>
       </c>
-      <c r="B99" s="4" t="n">
+      <c r="B99" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C99" s="5" t="n">
+      <c r="C99" s="3" t="n">
         <v>368.0500000000001</v>
       </c>
+      <c r="D99" s="7" t="n"/>
+      <c r="E99" s="7" t="n"/>
+      <c r="F99" s="10" t="n"/>
+      <c r="G99" s="10" t="n"/>
+      <c r="H99" s="10" t="n"/>
+      <c r="I99" s="10" t="n"/>
+      <c r="J99" s="7" t="n"/>
+      <c r="K99" s="7" t="n"/>
     </row>
     <row r="100" ht="18.75" customHeight="1">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="7" t="inlineStr">
         <is>
           <t>VSTIND</t>
         </is>
       </c>
-      <c r="B100" s="4" t="n">
+      <c r="B100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C100" s="5" t="n">
+      <c r="C100" s="3" t="n">
         <v>287.65</v>
       </c>
+      <c r="D100" s="7" t="n"/>
+      <c r="E100" s="7" t="n"/>
+      <c r="F100" s="10" t="n"/>
+      <c r="G100" s="10" t="n"/>
+      <c r="H100" s="10" t="n"/>
+      <c r="I100" s="10" t="n"/>
+      <c r="J100" s="7" t="n"/>
+      <c r="K100" s="7" t="n"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="7" t="inlineStr">
         <is>
           <t>WEL</t>
         </is>
       </c>
-      <c r="B101" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C101" s="5" t="n">
+      <c r="B101" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C101" s="3" t="n">
         <v>175.1141</v>
       </c>
+      <c r="D101" s="7" t="n"/>
+      <c r="E101" s="7" t="n"/>
+      <c r="F101" s="10" t="n"/>
+      <c r="G101" s="10" t="n"/>
+      <c r="H101" s="10" t="n"/>
+      <c r="I101" s="10" t="n"/>
+      <c r="J101" s="7" t="n"/>
+      <c r="K101" s="7" t="n"/>
     </row>
     <row r="102" ht="18.75" customHeight="1">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="7" t="inlineStr">
         <is>
           <t>MIDHANI</t>
         </is>
       </c>
-      <c r="B102" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C102" s="5" t="n">
+      <c r="B102" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C102" s="3" t="n">
         <v>435.15</v>
       </c>
+      <c r="D102" s="7" t="n"/>
+      <c r="E102" s="7" t="n"/>
+      <c r="F102" s="10" t="n"/>
+      <c r="G102" s="10" t="n"/>
+      <c r="H102" s="10" t="n"/>
+      <c r="I102" s="10" t="n"/>
+      <c r="J102" s="7" t="n"/>
+      <c r="K102" s="7" t="n"/>
     </row>
     <row r="103" ht="18.75" customHeight="1">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="7" t="inlineStr">
         <is>
           <t>MPSLTD</t>
         </is>
       </c>
-      <c r="B103" s="4" t="n">
+      <c r="B103" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="C103" s="5" t="n">
+      <c r="C103" s="3" t="n">
         <v>2592.325</v>
       </c>
+      <c r="D103" s="7" t="n"/>
+      <c r="E103" s="7" t="n"/>
+      <c r="F103" s="10" t="n"/>
+      <c r="G103" s="10" t="n"/>
+      <c r="H103" s="10" t="n"/>
+      <c r="I103" s="10" t="n"/>
+      <c r="J103" s="7" t="n"/>
+      <c r="K103" s="7" t="n"/>
     </row>
     <row r="104" ht="18.75" customHeight="1">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="7" t="inlineStr">
         <is>
           <t>SHAILY</t>
         </is>
       </c>
-      <c r="B104" s="4" t="n">
+      <c r="B104" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C104" s="5" t="n">
+      <c r="C104" s="3" t="n">
         <v>1774.716171</v>
       </c>
+      <c r="D104" s="7" t="n"/>
+      <c r="E104" s="7" t="n"/>
+      <c r="F104" s="10" t="n"/>
+      <c r="G104" s="10" t="n"/>
+      <c r="H104" s="10" t="n"/>
+      <c r="I104" s="10" t="n"/>
+      <c r="J104" s="7" t="n"/>
+      <c r="K104" s="7" t="n"/>
     </row>
     <row r="105" ht="18.75" customHeight="1">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="7" t="inlineStr">
         <is>
           <t>HBLENGINE</t>
         </is>
       </c>
-      <c r="B105" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C105" s="5" t="n">
+      <c r="B105" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C105" s="3" t="n">
         <v>593.9</v>
       </c>
+      <c r="D105" s="7" t="n"/>
+      <c r="E105" s="7" t="n"/>
+      <c r="F105" s="10" t="n"/>
+      <c r="G105" s="10" t="n"/>
+      <c r="H105" s="10" t="n"/>
+      <c r="I105" s="10" t="n"/>
+      <c r="J105" s="7" t="n"/>
+      <c r="K105" s="7" t="n"/>
     </row>
     <row r="106" ht="18.75" customHeight="1">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="7" t="inlineStr">
         <is>
           <t>ASTRAMICRO</t>
         </is>
       </c>
-      <c r="B106" s="4" t="n">
+      <c r="B106" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C106" s="5" t="n">
+      <c r="C106" s="3" t="n">
         <v>1159.103092783505</v>
       </c>
+      <c r="D106" s="7" t="n"/>
+      <c r="E106" s="7" t="n"/>
+      <c r="F106" s="10" t="n"/>
+      <c r="G106" s="10" t="n"/>
+      <c r="H106" s="10" t="n"/>
+      <c r="I106" s="10" t="n"/>
+      <c r="J106" s="7" t="n"/>
+      <c r="K106" s="7" t="n"/>
     </row>
     <row r="107" ht="18.75" customHeight="1">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="7" t="inlineStr">
         <is>
           <t>GRSE</t>
         </is>
       </c>
-      <c r="B107" s="4" t="n">
+      <c r="B107" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C107" s="5" t="n">
+      <c r="C107" s="3" t="n">
         <v>3096.489999999999</v>
       </c>
+      <c r="D107" s="7" t="n"/>
+      <c r="E107" s="7" t="n"/>
+      <c r="F107" s="10" t="n"/>
+      <c r="G107" s="10" t="n"/>
+      <c r="H107" s="10" t="n"/>
+      <c r="I107" s="10" t="n"/>
+      <c r="J107" s="7" t="n"/>
+      <c r="K107" s="7" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B107"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>